--- a/medicine/Sexualité et sexologie/Violet_Blue/Violet_Blue.xlsx
+++ b/medicine/Sexualité et sexologie/Violet_Blue/Violet_Blue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Violet Blue, née le 27 mars 1977[1], est une journaliste, auteure, éditrice de livres érotiques, conseillère et sexologue américaine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Violet Blue, née le 27 mars 1977, est une journaliste, auteure, éditrice de livres érotiques, conseillère et sexologue américaine.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Auteure
 The Smart Girls Guide to Privacy, Digita Publications, 2014,  (ISBN 0-9799019-9-5)
@@ -547,7 +563,7 @@
 The Smart Girl's Guide to the G-Spot, Cleis Press, 2007,  (ISBN 1-57344-273-9)
 Fetish Sex: An Erotic Guide for Couples, Daedalus Publishing Company, 2006,  (ISBN 1-881943-23-2) - avec Thomas Roche
 The Adventurous Couple's Guide to Sex Toys, Cleis Press, 2006,  (ISBN 1-57344-254-2)
-The Smart Girl's Guide to Porn, Cleis Press, 2006,  (ISBN 1-57344-247-X) (IPPY (en) Bronze award winner for erotica[3])
+The Smart Girl's Guide to Porn, Cleis Press, 2006,  (ISBN 1-57344-247-X) (IPPY (en) Bronze award winner for erotica)
 The Ultimate Guide to Sexual Fantasy: How to Turn Your Fantasies into Reality, Cleis Press, 2004,  (ISBN 1-57344-190-2)
 The Ultimate Guide to Adult Videos: How to Watch Adult Videos and Make Your Sex Life Sizzle, Cleis Press, 2003,  (ISBN 1-57344-172-4)
 The Ultimate Guide to Cunnilingus: How to Go Down on a Woman and Give Her Exquisite Pleasure, Cleis Press, 2002  (ISBN 1-57344-144-9)
@@ -557,8 +573,8 @@
 Sweet Life 2: Erotic Fantasies for Couples, Cleis Press, 2003,  (ISBN 978-1-57344-167-4)
 Taboo: Forbidden Fantasies for Couples, Cleis Press, 2004,  (ISBN 978-1-57344-186-5)
 Best Sex Writing 2005, Cleis Press, 2005,  (ISBN 978-1-57344-217-6)
-Best Women's Erotica 2006, Cleis Press, 2005,  (ISBN 978-1-57344-223-7)  (IPPY (en) winner for Erotica[4])
-Best Women's Erotica 2007, Cleis Press, 2006,  (ISBN 978-1-57344-258-9) (IPPY (en) Gold winner for Erotica[3])
+Best Women's Erotica 2006, Cleis Press, 2005,  (ISBN 978-1-57344-223-7)  (IPPY (en) winner for Erotica)
+Best Women's Erotica 2007, Cleis Press, 2006,  (ISBN 978-1-57344-258-9) (IPPY (en) Gold winner for Erotica)
 Lust: Erotic Fantasies for Women, Cleis Press, 2007,  (ISBN 978-1-57344-280-0)
 Lips Like Sugar: Women's Erotic Fantasies, Cleis Press, 2007,  (ISBN 978-1-57344-232-9)
 Best Women's Erotica 2008, Cleis Press, 2007,  (ISBN 978-1-57344-299-2)
